--- a/Assets/Document/Excel/GrowthStat.xlsx
+++ b/Assets/Document/Excel/GrowthStat.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -26,14 +24,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxExp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>growthExp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>atk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,6 +41,14 @@
   </si>
   <si>
     <t>extraDef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxRune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>growthRune</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,13 +398,13 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -418,25 +416,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -502,30 +500,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>